--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema3d-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3d</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3d</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06187433333333333</v>
+        <v>0.01662366666666667</v>
       </c>
       <c r="H2">
-        <v>0.185623</v>
+        <v>0.049871</v>
       </c>
       <c r="I2">
-        <v>0.02103537425974516</v>
+        <v>0.009202902869893639</v>
       </c>
       <c r="J2">
-        <v>0.02103537425974516</v>
+        <v>0.00920290286989364</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N2">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O2">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P2">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q2">
-        <v>7.304080190116777</v>
+        <v>2.117842770866555</v>
       </c>
       <c r="R2">
-        <v>65.73672171105099</v>
+        <v>19.060584937799</v>
       </c>
       <c r="S2">
-        <v>0.009796628683496612</v>
+        <v>0.004452870393440652</v>
       </c>
       <c r="T2">
-        <v>0.009796628683496613</v>
+        <v>0.004452870393440654</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06187433333333333</v>
+        <v>0.01662366666666667</v>
       </c>
       <c r="H3">
-        <v>0.185623</v>
+        <v>0.049871</v>
       </c>
       <c r="I3">
-        <v>0.02103537425974516</v>
+        <v>0.009202902869893639</v>
       </c>
       <c r="J3">
-        <v>0.02103537425974516</v>
+        <v>0.00920290286989364</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
         <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P3">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q3">
-        <v>3.673223340256444</v>
+        <v>0.9868783566795554</v>
       </c>
       <c r="R3">
-        <v>33.059010062308</v>
+        <v>8.881905210115999</v>
       </c>
       <c r="S3">
-        <v>0.004926726459648876</v>
+        <v>0.002074961124044014</v>
       </c>
       <c r="T3">
-        <v>0.004926726459648876</v>
+        <v>0.002074961124044014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06187433333333333</v>
+        <v>0.01662366666666667</v>
       </c>
       <c r="H4">
-        <v>0.185623</v>
+        <v>0.049871</v>
       </c>
       <c r="I4">
-        <v>0.02103537425974516</v>
+        <v>0.009202902869893639</v>
       </c>
       <c r="J4">
-        <v>0.02103537425974516</v>
+        <v>0.00920290286989364</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N4">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P4">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q4">
-        <v>1.188806622421111</v>
+        <v>0.2764973194561111</v>
       </c>
       <c r="R4">
-        <v>10.69925960179</v>
+        <v>2.488475875105</v>
       </c>
       <c r="S4">
-        <v>0.001594491948774071</v>
+        <v>0.0005813494488866365</v>
       </c>
       <c r="T4">
-        <v>0.001594491948774071</v>
+        <v>0.0005813494488866366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06187433333333333</v>
+        <v>0.01662366666666667</v>
       </c>
       <c r="H5">
-        <v>0.185623</v>
+        <v>0.049871</v>
       </c>
       <c r="I5">
-        <v>0.02103537425974516</v>
+        <v>0.009202902869893639</v>
       </c>
       <c r="J5">
-        <v>0.02103537425974516</v>
+        <v>0.00920290286989364</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N5">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P5">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q5">
-        <v>3.517250458915444</v>
+        <v>0.9958012261285556</v>
       </c>
       <c r="R5">
-        <v>31.65525413023899</v>
+        <v>8.962211035157001</v>
       </c>
       <c r="S5">
-        <v>0.004717527167825599</v>
+        <v>0.002093721903522337</v>
       </c>
       <c r="T5">
-        <v>0.004717527167825599</v>
+        <v>0.002093721903522338</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>4.145856</v>
       </c>
       <c r="I6">
-        <v>0.4698212645362376</v>
+        <v>0.7650520358638441</v>
       </c>
       <c r="J6">
-        <v>0.4698212645362376</v>
+        <v>0.7650520358638442</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N6">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O6">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P6">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q6">
-        <v>163.1353047880747</v>
+        <v>176.0596570883627</v>
       </c>
       <c r="R6">
-        <v>1468.217743092672</v>
+        <v>1584.536913795264</v>
       </c>
       <c r="S6">
-        <v>0.2188059227964559</v>
+        <v>0.3701742382921596</v>
       </c>
       <c r="T6">
-        <v>0.2188059227964559</v>
+        <v>0.3701742382921597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>4.145856</v>
       </c>
       <c r="I7">
-        <v>0.4698212645362376</v>
+        <v>0.7650520358638441</v>
       </c>
       <c r="J7">
-        <v>0.4698212645362376</v>
+        <v>0.7650520358638442</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
         <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P7">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q7">
-        <v>82.04077632913068</v>
+        <v>82.04077632913067</v>
       </c>
       <c r="R7">
-        <v>738.366986962176</v>
+        <v>738.3669869621759</v>
       </c>
       <c r="S7">
-        <v>0.1100375408925298</v>
+        <v>0.1724948371976623</v>
       </c>
       <c r="T7">
-        <v>0.1100375408925298</v>
+        <v>0.1724948371976624</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>4.145856</v>
       </c>
       <c r="I8">
-        <v>0.4698212645362376</v>
+        <v>0.7650520358638441</v>
       </c>
       <c r="J8">
-        <v>0.4698212645362376</v>
+        <v>0.7650520358638442</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N8">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P8">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q8">
-        <v>26.55178005098667</v>
+        <v>22.98566443125334</v>
       </c>
       <c r="R8">
-        <v>238.96602045888</v>
+        <v>206.87097988128</v>
       </c>
       <c r="S8">
-        <v>0.03561268815166587</v>
+        <v>0.0483285095699576</v>
       </c>
       <c r="T8">
-        <v>0.03561268815166587</v>
+        <v>0.04832850956995761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>4.145856</v>
       </c>
       <c r="I9">
-        <v>0.4698212645362376</v>
+        <v>0.7650520358638441</v>
       </c>
       <c r="J9">
-        <v>0.4698212645362376</v>
+        <v>0.7650520358638442</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N9">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P9">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q9">
-        <v>78.55715034557868</v>
+        <v>82.78254873879467</v>
       </c>
       <c r="R9">
-        <v>707.014353110208</v>
+        <v>745.0429386491521</v>
       </c>
       <c r="S9">
-        <v>0.105365112695586</v>
+        <v>0.1740544508040645</v>
       </c>
       <c r="T9">
-        <v>0.105365112695586</v>
+        <v>0.1740544508040646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.475516666666667</v>
+        <v>0.4077746666666667</v>
       </c>
       <c r="H10">
-        <v>4.426550000000001</v>
+        <v>1.223324</v>
       </c>
       <c r="I10">
-        <v>0.5016303794760075</v>
+        <v>0.2257450612662623</v>
       </c>
       <c r="J10">
-        <v>0.5016303794760076</v>
+        <v>0.2257450612662623</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>118.0470123333333</v>
+        <v>127.3992563333333</v>
       </c>
       <c r="N10">
-        <v>354.141037</v>
+        <v>382.197769</v>
       </c>
       <c r="O10">
-        <v>0.4657216250363637</v>
+        <v>0.4838549810199306</v>
       </c>
       <c r="P10">
-        <v>0.4657216250363638</v>
+        <v>0.4838549810199307</v>
       </c>
       <c r="Q10">
-        <v>174.1803341480389</v>
+        <v>51.95018928490622</v>
       </c>
       <c r="R10">
-        <v>1567.62300733235</v>
+        <v>467.551703564156</v>
       </c>
       <c r="S10">
-        <v>0.233620115497174</v>
+        <v>0.1092278723343304</v>
       </c>
       <c r="T10">
-        <v>0.2336201154971741</v>
+        <v>0.1092278723343305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.475516666666667</v>
+        <v>0.4077746666666667</v>
       </c>
       <c r="H11">
-        <v>4.426550000000001</v>
+        <v>1.223324</v>
       </c>
       <c r="I11">
-        <v>0.5016303794760075</v>
+        <v>0.2257450612662623</v>
       </c>
       <c r="J11">
-        <v>0.5016303794760076</v>
+        <v>0.2257450612662623</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.36586533333334</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
         <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="P11">
-        <v>0.2342114953037476</v>
+        <v>0.2254681108101269</v>
       </c>
       <c r="Q11">
-        <v>87.59532373042224</v>
+        <v>24.20789594767822</v>
       </c>
       <c r="R11">
-        <v>788.3579135738001</v>
+        <v>217.871063529104</v>
       </c>
       <c r="S11">
-        <v>0.1174876012668621</v>
+        <v>0.05089831248842051</v>
       </c>
       <c r="T11">
-        <v>0.1174876012668621</v>
+        <v>0.05089831248842053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.475516666666667</v>
+        <v>0.4077746666666667</v>
       </c>
       <c r="H12">
-        <v>4.426550000000001</v>
+        <v>1.223324</v>
       </c>
       <c r="I12">
-        <v>0.5016303794760075</v>
+        <v>0.2257450612662623</v>
       </c>
       <c r="J12">
-        <v>0.5016303794760076</v>
+        <v>0.2257450612662623</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.21324333333333</v>
+        <v>16.63275166666667</v>
       </c>
       <c r="N12">
-        <v>57.63973</v>
+        <v>49.898255</v>
       </c>
       <c r="O12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="P12">
-        <v>0.07580050295684103</v>
+        <v>0.06317022542837675</v>
       </c>
       <c r="Q12">
-        <v>28.34946075905556</v>
+        <v>6.782414766624445</v>
       </c>
       <c r="R12">
-        <v>255.1451468315</v>
+        <v>61.04173289962</v>
       </c>
       <c r="S12">
-        <v>0.0380238350627124</v>
+        <v>0.01426036640953251</v>
       </c>
       <c r="T12">
-        <v>0.0380238350627124</v>
+        <v>0.01426036640953251</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.475516666666667</v>
+        <v>0.4077746666666667</v>
       </c>
       <c r="H13">
-        <v>4.426550000000001</v>
+        <v>1.223324</v>
       </c>
       <c r="I13">
-        <v>0.5016303794760075</v>
+        <v>0.2257450612662623</v>
       </c>
       <c r="J13">
-        <v>0.5016303794760076</v>
+        <v>0.2257450612662623</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.84506433333333</v>
+        <v>59.90262233333334</v>
       </c>
       <c r="N13">
-        <v>170.535193</v>
+        <v>179.707867</v>
       </c>
       <c r="O13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415657</v>
       </c>
       <c r="P13">
-        <v>0.2242663767030476</v>
+        <v>0.2275066827415658</v>
       </c>
       <c r="Q13">
-        <v>83.87583984157223</v>
+        <v>24.42677185443423</v>
       </c>
       <c r="R13">
-        <v>754.88255857415</v>
+        <v>219.840946689908</v>
       </c>
       <c r="S13">
-        <v>0.112498827649259</v>
+        <v>0.05135851003397886</v>
       </c>
       <c r="T13">
-        <v>0.112498827649259</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.022099</v>
-      </c>
-      <c r="H14">
-        <v>0.06629700000000001</v>
-      </c>
-      <c r="I14">
-        <v>0.007512981728009595</v>
-      </c>
-      <c r="J14">
-        <v>0.007512981728009595</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>118.0470123333333</v>
-      </c>
-      <c r="N14">
-        <v>354.141037</v>
-      </c>
-      <c r="O14">
-        <v>0.4657216250363637</v>
-      </c>
-      <c r="P14">
-        <v>0.4657216250363638</v>
-      </c>
-      <c r="Q14">
-        <v>2.608720925554334</v>
-      </c>
-      <c r="R14">
-        <v>23.478488329989</v>
-      </c>
-      <c r="S14">
-        <v>0.003498958059237137</v>
-      </c>
-      <c r="T14">
-        <v>0.003498958059237137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.022099</v>
-      </c>
-      <c r="H15">
-        <v>0.06629700000000001</v>
-      </c>
-      <c r="I15">
-        <v>0.007512981728009595</v>
-      </c>
-      <c r="J15">
-        <v>0.007512981728009595</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>59.36586533333334</v>
-      </c>
-      <c r="N15">
-        <v>178.097596</v>
-      </c>
-      <c r="O15">
-        <v>0.2342114953037476</v>
-      </c>
-      <c r="P15">
-        <v>0.2342114953037476</v>
-      </c>
-      <c r="Q15">
-        <v>1.311926258001334</v>
-      </c>
-      <c r="R15">
-        <v>11.807336322012</v>
-      </c>
-      <c r="S15">
-        <v>0.001759626684706861</v>
-      </c>
-      <c r="T15">
-        <v>0.001759626684706861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.022099</v>
-      </c>
-      <c r="H16">
-        <v>0.06629700000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.007512981728009595</v>
-      </c>
-      <c r="J16">
-        <v>0.007512981728009595</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.21324333333333</v>
-      </c>
-      <c r="N16">
-        <v>57.63973</v>
-      </c>
-      <c r="O16">
-        <v>0.07580050295684103</v>
-      </c>
-      <c r="P16">
-        <v>0.07580050295684103</v>
-      </c>
-      <c r="Q16">
-        <v>0.4245934644233335</v>
-      </c>
-      <c r="R16">
-        <v>3.821341179810001</v>
-      </c>
-      <c r="S16">
-        <v>0.0005694877936886839</v>
-      </c>
-      <c r="T16">
-        <v>0.0005694877936886839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.022099</v>
-      </c>
-      <c r="H17">
-        <v>0.06629700000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.007512981728009595</v>
-      </c>
-      <c r="J17">
-        <v>0.007512981728009595</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>56.84506433333333</v>
-      </c>
-      <c r="N17">
-        <v>170.535193</v>
-      </c>
-      <c r="O17">
-        <v>0.2242663767030476</v>
-      </c>
-      <c r="P17">
-        <v>0.2242663767030476</v>
-      </c>
-      <c r="Q17">
-        <v>1.256219076702334</v>
-      </c>
-      <c r="R17">
-        <v>11.305971690321</v>
-      </c>
-      <c r="S17">
-        <v>0.001684909190376914</v>
-      </c>
-      <c r="T17">
-        <v>0.001684909190376914</v>
+        <v>0.05135851003397888</v>
       </c>
     </row>
   </sheetData>
